--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efnb3-Ephb4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efnb3-Ephb4.xlsx
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Efnb3</t>
   </si>
   <si>
     <t>Ephb4</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,10 +543,10 @@
         <v>0.45995</v>
       </c>
       <c r="I2">
-        <v>0.1117088182569538</v>
+        <v>0.1101680340964018</v>
       </c>
       <c r="J2">
-        <v>0.1117088182569538</v>
+        <v>0.1101680340964017</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.466179</v>
+        <v>49.146613</v>
       </c>
       <c r="N2">
-        <v>121.398537</v>
+        <v>147.439839</v>
       </c>
       <c r="O2">
-        <v>0.7951624315361971</v>
+        <v>0.8214902885327882</v>
       </c>
       <c r="P2">
-        <v>0.7951624315361973</v>
+        <v>0.8214902885327882</v>
       </c>
       <c r="Q2">
-        <v>6.204139677016668</v>
+        <v>7.534994883116668</v>
       </c>
       <c r="R2">
-        <v>55.83725709315001</v>
+        <v>67.81495394805</v>
       </c>
       <c r="S2">
-        <v>0.08882665554923455</v>
+        <v>0.09050197011694312</v>
       </c>
       <c r="T2">
-        <v>0.08882665554923455</v>
+        <v>0.09050197011694311</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,10 +605,10 @@
         <v>0.45995</v>
       </c>
       <c r="I3">
-        <v>0.1117088182569538</v>
+        <v>0.1101680340964018</v>
       </c>
       <c r="J3">
-        <v>0.1117088182569538</v>
+        <v>0.1101680340964017</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>24.434749</v>
       </c>
       <c r="O3">
-        <v>0.1600480113596151</v>
+        <v>0.1361430475126621</v>
       </c>
       <c r="P3">
-        <v>0.1600480113596152</v>
+        <v>0.1361430475126621</v>
       </c>
       <c r="Q3">
         <v>1.248751422505556</v>
@@ -635,10 +635,10 @@
         <v>11.23876280255</v>
       </c>
       <c r="S3">
-        <v>0.01787877421335813</v>
+        <v>0.014998611900363</v>
       </c>
       <c r="T3">
-        <v>0.01787877421335813</v>
+        <v>0.014998611900363</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,72 +667,72 @@
         <v>0.45995</v>
       </c>
       <c r="I4">
-        <v>0.1117088182569538</v>
+        <v>0.1101680340964018</v>
       </c>
       <c r="J4">
-        <v>0.1117088182569538</v>
+        <v>0.1101680340964017</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.01385433333333333</v>
+        <v>2.534635</v>
       </c>
       <c r="N4">
-        <v>0.041563</v>
+        <v>7.603904999999999</v>
       </c>
       <c r="O4">
-        <v>0.0002722383395933261</v>
+        <v>0.04236666395454969</v>
       </c>
       <c r="P4">
-        <v>0.0002722383395933261</v>
+        <v>0.04236666395454969</v>
       </c>
       <c r="Q4">
-        <v>0.002124100205555556</v>
+        <v>0.3886017894166667</v>
       </c>
       <c r="R4">
-        <v>0.01911690185</v>
+        <v>3.49741610475</v>
       </c>
       <c r="S4">
-        <v>3.041142320020575E-05</v>
+        <v>0.004667452079095626</v>
       </c>
       <c r="T4">
-        <v>3.041142320020574E-05</v>
+        <v>0.004667452079095625</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1533166666666667</v>
+        <v>0.9559960000000002</v>
       </c>
       <c r="H5">
-        <v>0.45995</v>
+        <v>2.867988</v>
       </c>
       <c r="I5">
-        <v>0.1117088182569538</v>
+        <v>0.6869455370628789</v>
       </c>
       <c r="J5">
-        <v>0.1117088182569538</v>
+        <v>0.6869455370628788</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.265506666666667</v>
+        <v>49.146613</v>
       </c>
       <c r="N5">
-        <v>6.79652</v>
+        <v>147.439839</v>
       </c>
       <c r="O5">
-        <v>0.04451731876459429</v>
+        <v>0.8214902885327882</v>
       </c>
       <c r="P5">
-        <v>0.0445173187645943</v>
+        <v>0.8214902885327882</v>
       </c>
       <c r="Q5">
-        <v>0.3473399304444444</v>
+        <v>46.98396544154801</v>
       </c>
       <c r="R5">
-        <v>3.126059374</v>
+        <v>422.8556889739321</v>
       </c>
       <c r="S5">
-        <v>0.004972977071160945</v>
+        <v>0.5643190874480954</v>
       </c>
       <c r="T5">
-        <v>0.004972977071160944</v>
+        <v>0.5643190874480953</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +791,10 @@
         <v>2.867988</v>
       </c>
       <c r="I6">
-        <v>0.6965529954454279</v>
+        <v>0.6869455370628789</v>
       </c>
       <c r="J6">
-        <v>0.6965529954454278</v>
+        <v>0.6869455370628788</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>40.466179</v>
+        <v>8.144916333333333</v>
       </c>
       <c r="N6">
-        <v>121.398537</v>
+        <v>24.434749</v>
       </c>
       <c r="O6">
-        <v>0.7951624315361971</v>
+        <v>0.1361430475126621</v>
       </c>
       <c r="P6">
-        <v>0.7951624315361973</v>
+        <v>0.1361430475126621</v>
       </c>
       <c r="Q6">
-        <v>38.68550525928401</v>
+        <v>7.786507435001334</v>
       </c>
       <c r="R6">
-        <v>348.1695473335561</v>
+        <v>70.078566915012</v>
       </c>
       <c r="S6">
-        <v>0.5538727735522081</v>
+        <v>0.09352285889096272</v>
       </c>
       <c r="T6">
-        <v>0.5538727735522081</v>
+        <v>0.09352285889096271</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>2.867988</v>
       </c>
       <c r="I7">
-        <v>0.6965529954454279</v>
+        <v>0.6869455370628789</v>
       </c>
       <c r="J7">
-        <v>0.6965529954454278</v>
+        <v>0.6869455370628788</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,122 +865,122 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.144916333333333</v>
+        <v>2.534635</v>
       </c>
       <c r="N7">
-        <v>24.434749</v>
+        <v>7.603904999999999</v>
       </c>
       <c r="O7">
-        <v>0.1600480113596151</v>
+        <v>0.04236666395454969</v>
       </c>
       <c r="P7">
-        <v>0.1600480113596152</v>
+        <v>0.04236666395454969</v>
       </c>
       <c r="Q7">
-        <v>7.786507435001334</v>
+        <v>2.42310092146</v>
       </c>
       <c r="R7">
-        <v>70.078566915012</v>
+        <v>21.80790829314</v>
       </c>
       <c r="S7">
-        <v>0.1114819217276238</v>
+        <v>0.02910359072382065</v>
       </c>
       <c r="T7">
-        <v>0.1114819217276238</v>
+        <v>0.02910359072382064</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.9559960000000002</v>
+        <v>0.1265133333333333</v>
       </c>
       <c r="H8">
-        <v>2.867988</v>
+        <v>0.37954</v>
       </c>
       <c r="I8">
-        <v>0.6965529954454279</v>
+        <v>0.09090808927263468</v>
       </c>
       <c r="J8">
-        <v>0.6965529954454278</v>
+        <v>0.09090808927263468</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.01385433333333333</v>
+        <v>49.146613</v>
       </c>
       <c r="N8">
-        <v>0.041563</v>
+        <v>147.439839</v>
       </c>
       <c r="O8">
-        <v>0.0002722383395933261</v>
+        <v>0.8214902885327882</v>
       </c>
       <c r="P8">
-        <v>0.0002722383395933261</v>
+        <v>0.8214902885327882</v>
       </c>
       <c r="Q8">
-        <v>0.01324468724933334</v>
+        <v>6.217701832673334</v>
       </c>
       <c r="R8">
-        <v>0.119202185244</v>
+        <v>55.95931649406</v>
       </c>
       <c r="S8">
-        <v>0.000189628430918821</v>
+        <v>0.07468011248654112</v>
       </c>
       <c r="T8">
-        <v>0.0001896284309188209</v>
+        <v>0.07468011248654112</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.9559960000000002</v>
+        <v>0.1265133333333333</v>
       </c>
       <c r="H9">
-        <v>2.867988</v>
+        <v>0.37954</v>
       </c>
       <c r="I9">
-        <v>0.6965529954454279</v>
+        <v>0.09090808927263468</v>
       </c>
       <c r="J9">
-        <v>0.6965529954454278</v>
+        <v>0.09090808927263468</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.265506666666667</v>
+        <v>8.144916333333333</v>
       </c>
       <c r="N9">
-        <v>6.79652</v>
+        <v>24.434749</v>
       </c>
       <c r="O9">
-        <v>0.04451731876459429</v>
+        <v>0.1361430475126621</v>
       </c>
       <c r="P9">
-        <v>0.0445173187645943</v>
+        <v>0.1361430475126621</v>
       </c>
       <c r="Q9">
-        <v>2.165815311306667</v>
+        <v>1.030440515051111</v>
       </c>
       <c r="R9">
-        <v>19.49233780176</v>
+        <v>9.27396463546</v>
       </c>
       <c r="S9">
-        <v>0.03100867173467711</v>
+        <v>0.01237650431712963</v>
       </c>
       <c r="T9">
-        <v>0.03100867173467711</v>
+        <v>0.01237650431712963</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,13 +1018,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1033,16 +1033,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.2631543333333333</v>
+        <v>0.1265133333333333</v>
       </c>
       <c r="H10">
-        <v>0.789463</v>
+        <v>0.37954</v>
       </c>
       <c r="I10">
-        <v>0.1917381862976183</v>
+        <v>0.09090808927263468</v>
       </c>
       <c r="J10">
-        <v>0.1917381862976183</v>
+        <v>0.09090808927263468</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,60 +1051,60 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>40.466179</v>
+        <v>2.534635</v>
       </c>
       <c r="N10">
-        <v>121.398537</v>
+        <v>7.603904999999999</v>
       </c>
       <c r="O10">
-        <v>0.7951624315361971</v>
+        <v>0.04236666395454969</v>
       </c>
       <c r="P10">
-        <v>0.7951624315361973</v>
+        <v>0.04236666395454969</v>
       </c>
       <c r="Q10">
-        <v>10.64885035729233</v>
+        <v>0.3206651226333333</v>
       </c>
       <c r="R10">
-        <v>95.839653215631</v>
+        <v>2.8859861037</v>
       </c>
       <c r="S10">
-        <v>0.1524630024347545</v>
+        <v>0.003851472468963917</v>
       </c>
       <c r="T10">
-        <v>0.1524630024347546</v>
+        <v>0.003851472468963917</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.2631543333333333</v>
+        <v>0.155836</v>
       </c>
       <c r="H11">
-        <v>0.789463</v>
+        <v>0.467508</v>
       </c>
       <c r="I11">
-        <v>0.1917381862976183</v>
+        <v>0.1119783395680848</v>
       </c>
       <c r="J11">
-        <v>0.1917381862976183</v>
+        <v>0.1119783395680848</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,122 +1113,122 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.144916333333333</v>
+        <v>49.146613</v>
       </c>
       <c r="N11">
-        <v>24.434749</v>
+        <v>147.439839</v>
       </c>
       <c r="O11">
-        <v>0.1600480113596151</v>
+        <v>0.8214902885327882</v>
       </c>
       <c r="P11">
-        <v>0.1600480113596152</v>
+        <v>0.8214902885327882</v>
       </c>
       <c r="Q11">
-        <v>2.143370027754111</v>
+        <v>7.658811583468</v>
       </c>
       <c r="R11">
-        <v>19.290330249787</v>
+        <v>68.929304251212</v>
       </c>
       <c r="S11">
-        <v>0.03068731541863321</v>
+        <v>0.09198911848120848</v>
       </c>
       <c r="T11">
-        <v>0.03068731541863323</v>
+        <v>0.09198911848120847</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.2631543333333333</v>
+        <v>0.155836</v>
       </c>
       <c r="H12">
-        <v>0.789463</v>
+        <v>0.467508</v>
       </c>
       <c r="I12">
-        <v>0.1917381862976183</v>
+        <v>0.1119783395680848</v>
       </c>
       <c r="J12">
-        <v>0.1917381862976183</v>
+        <v>0.1119783395680848</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.01385433333333333</v>
+        <v>8.144916333333333</v>
       </c>
       <c r="N12">
-        <v>0.041563</v>
+        <v>24.434749</v>
       </c>
       <c r="O12">
-        <v>0.0002722383395933261</v>
+        <v>0.1361430475126621</v>
       </c>
       <c r="P12">
-        <v>0.0002722383395933261</v>
+        <v>0.1361430475126621</v>
       </c>
       <c r="Q12">
-        <v>0.003645827852111111</v>
+        <v>1.269271181721333</v>
       </c>
       <c r="R12">
-        <v>0.032812450669</v>
+        <v>11.423440635492</v>
       </c>
       <c r="S12">
-        <v>5.219848547429944E-05</v>
+        <v>0.01524507240420678</v>
       </c>
       <c r="T12">
-        <v>5.219848547429944E-05</v>
+        <v>0.01524507240420678</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.2631543333333333</v>
+        <v>0.155836</v>
       </c>
       <c r="H13">
-        <v>0.789463</v>
+        <v>0.467508</v>
       </c>
       <c r="I13">
-        <v>0.1917381862976183</v>
+        <v>0.1119783395680848</v>
       </c>
       <c r="J13">
-        <v>0.1917381862976183</v>
+        <v>0.1119783395680848</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.265506666666667</v>
+        <v>2.534635</v>
       </c>
       <c r="N13">
-        <v>6.79652</v>
+        <v>7.603904999999999</v>
       </c>
       <c r="O13">
-        <v>0.04451731876459429</v>
+        <v>0.04236666395454969</v>
       </c>
       <c r="P13">
-        <v>0.0445173187645943</v>
+        <v>0.04236666395454969</v>
       </c>
       <c r="Q13">
-        <v>0.5961778965288889</v>
+        <v>0.39498737986</v>
       </c>
       <c r="R13">
-        <v>5.36560106876</v>
+        <v>3.554886418739999</v>
       </c>
       <c r="S13">
-        <v>0.008535669958756239</v>
+        <v>0.004744148682669502</v>
       </c>
       <c r="T13">
-        <v>0.00853566995875624</v>
+        <v>0.004744148682669502</v>
       </c>
     </row>
   </sheetData>
